--- a/medicine/Enfance/Suzanne_Sens/Suzanne_Sens.xlsx
+++ b/medicine/Enfance/Suzanne_Sens/Suzanne_Sens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Suzanne Sens (née le 15 septembre 1930 au Genest (Mayenne)[1],[2] et morte le 13 février 2023[1]) est une femme de lettres française.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suzanne Sens (née le 15 septembre 1930 au Genest (Mayenne), et morte le 13 février 2023) est une femme de lettres française.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Suzanne Sens a été institutrice dans plusieurs villages de la campagne mayennaise, puis à Laval. Autrice de livres pour la jeunesse, elle a également publié des romans, des biographies et des études d'histoire locale. Elle s'est par ailleurs consacrée à des ateliers d'écriture à Laval. Elle a été élue à l'Académie du Maine en 2000[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suzanne Sens a été institutrice dans plusieurs villages de la campagne mayennaise, puis à Laval. Autrice de livres pour la jeunesse, elle a également publié des romans, des biographies et des études d'histoire locale. Elle s'est par ailleurs consacrée à des ateliers d'écriture à Laval. Elle a été élue à l'Académie du Maine en 2000,.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Fiction
-Le Secret de madame Miesko, Éditions Siloë[5]
+Le Secret de madame Miesko, Éditions Siloë
 Un drame sous l'Empire, Éditions Milan
 Je suis Mozart, Éditions Belfond
 Le Chouan de Mortefontaine, Éditions Siloë
